--- a/examen_2B/data/documentos_finales/bodegas_finales.xlsx
+++ b/examen_2B/data/documentos_finales/bodegas_finales.xlsx
@@ -8,48 +8,96 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\PYTHON_PROJECTS\PY-Pilatu-a-Zambrano-Isaac\examen_2B\data\documentos_finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1DD4A-32A2-46B9-8758-34918392881C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097DDBF-44EB-4481-8771-B03CC2452ACE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_name_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bodegas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+  <si>
+    <t>administrador</t>
+  </si>
   <si>
     <t>bodega</t>
   </si>
   <si>
+    <t>celular</t>
+  </si>
+  <si>
     <t>codigo</t>
   </si>
   <si>
-    <t>administrador</t>
+    <t>correo</t>
   </si>
   <si>
     <t>direccion</t>
   </si>
   <si>
-    <t>correo</t>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>latitud</t>
+  </si>
+  <si>
+    <t>longitud</t>
   </si>
   <si>
     <t>telefono</t>
   </si>
   <si>
-    <t>extension</t>
-  </si>
-  <si>
-    <t>celular</t>
-  </si>
-  <si>
-    <t>latitud</t>
-  </si>
-  <si>
-    <t>longitud</t>
+    <t>Oscar A. BastidasJ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nestor A. GUERREROM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco V. HinojosaG. </t>
+  </si>
+  <si>
+    <t>Richard S. Bueno G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego D. CalvacheJ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricio Molina H. </t>
+  </si>
+  <si>
+    <t>Jorge V. Sanchez F</t>
+  </si>
+  <si>
+    <t>Jorge V. Riera F</t>
+  </si>
+  <si>
+    <t>Rafael E. Paz A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricio R. Moreno B. </t>
+  </si>
+  <si>
+    <t>Renato Vega</t>
+  </si>
+  <si>
+    <t>Mary J. Molina P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narciso D. Seglia G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro V. Mu zoS. </t>
+  </si>
+  <si>
+    <t>DORA NARCISA REYES ASCENCIO</t>
+  </si>
+  <si>
+    <t>ROSENDO ALEJANDRO CAMACHO</t>
   </si>
   <si>
     <t xml:space="preserve">BODEGA SHUSHUFINDI  </t>
@@ -94,6 +142,27 @@
     <t xml:space="preserve">BODEGA  MONTEVERDE  </t>
   </si>
   <si>
+    <t>LA LIBERTDAD</t>
+  </si>
+  <si>
+    <t>ESMERALDAS</t>
+  </si>
+  <si>
+    <t>0958741317</t>
+  </si>
+  <si>
+    <t>0994330910</t>
+  </si>
+  <si>
+    <t>0993328936</t>
+  </si>
+  <si>
+    <t>0984442642</t>
+  </si>
+  <si>
+    <t>0985810896</t>
+  </si>
+  <si>
     <t>B01</t>
   </si>
   <si>
@@ -136,46 +205,49 @@
     <t>B15</t>
   </si>
   <si>
-    <t>Oscar A. BastidasJ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nestor A. GUERREROM. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco V. HinojosaG. </t>
-  </si>
-  <si>
-    <t>Richard S. Bueno G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego D. CalvacheJ. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Molina H. </t>
-  </si>
-  <si>
-    <t>Jorge V. Sanchez F</t>
-  </si>
-  <si>
-    <t>Jorge V. Riera F</t>
-  </si>
-  <si>
-    <t>Rafael E. Paz A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio R. Moreno B. </t>
-  </si>
-  <si>
-    <t>Renato Vega</t>
-  </si>
-  <si>
-    <t>Mary J. Molina P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narciso D. Seglia G. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro V. Mu zoS. </t>
+    <t>rodriguez@hotmail.ec</t>
+  </si>
+  <si>
+    <t>cevallos@hotmail.ec</t>
+  </si>
+  <si>
+    <t>arias@hotmail.ec</t>
+  </si>
+  <si>
+    <t>richard@hotmail.ec</t>
+  </si>
+  <si>
+    <t>diego@hotmail.ec</t>
+  </si>
+  <si>
+    <t>anibal@hotmail.ec</t>
+  </si>
+  <si>
+    <t>jorge@hotmail.ec</t>
+  </si>
+  <si>
+    <t>rafael.orrico@hotmail.ec</t>
+  </si>
+  <si>
+    <t>patricio.zuniga@hotmail.ec</t>
+  </si>
+  <si>
+    <t>renato@hotmail.ec</t>
+  </si>
+  <si>
+    <t>mary@hotmail.ec</t>
+  </si>
+  <si>
+    <t>narciso@hotmail.ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pedro.chavez@hotmail.ec</t>
+  </si>
+  <si>
+    <t>dora.reyes@hotmail.ec</t>
+  </si>
+  <si>
+    <t>alejandro.camacho@hotmail.ec</t>
   </si>
   <si>
     <t>SHUSHUFINDI</t>
@@ -214,43 +286,73 @@
     <t xml:space="preserve">MONTEVERDE.- Km. 27 Ruta del Spondylus  Via San Pablo Comuna Monteverde </t>
   </si>
   <si>
-    <t>rodriguez@hotmail.ec</t>
-  </si>
-  <si>
-    <t>cevallos@hotmail.ec</t>
-  </si>
-  <si>
-    <t>arias@hotmail.ec</t>
-  </si>
-  <si>
-    <t>richard@hotmail.ec</t>
-  </si>
-  <si>
-    <t>diego@hotmail.ec</t>
-  </si>
-  <si>
-    <t>anibal@hotmail.ec</t>
-  </si>
-  <si>
-    <t>jorge@hotmail.ec</t>
-  </si>
-  <si>
-    <t>rafael.orrico@hotmail.ec</t>
-  </si>
-  <si>
-    <t>patricio.zuniga@hotmail.ec</t>
-  </si>
-  <si>
-    <t>renato@hotmail.ec</t>
-  </si>
-  <si>
-    <t>mary@hotmail.ec</t>
-  </si>
-  <si>
-    <t>narciso@hotmail.ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pedro.chavez@hotmail.ec</t>
+    <t>Calle Vigésima Primera y Av. Tercera. Cantón: La Libertad</t>
+  </si>
+  <si>
+    <t>Vía a Atacames Km 3 1/2</t>
+  </si>
+  <si>
+    <t>60199/60200/60201</t>
+  </si>
+  <si>
+    <t>61051</t>
+  </si>
+  <si>
+    <t>62007</t>
+  </si>
+  <si>
+    <t>62340</t>
+  </si>
+  <si>
+    <t>21712</t>
+  </si>
+  <si>
+    <t>20160</t>
+  </si>
+  <si>
+    <t>20680</t>
+  </si>
+  <si>
+    <t>33180</t>
+  </si>
+  <si>
+    <t>82022</t>
+  </si>
+  <si>
+    <t>85420</t>
+  </si>
+  <si>
+    <t>41360</t>
+  </si>
+  <si>
+    <t>42014</t>
+  </si>
+  <si>
+    <t>43020/43034</t>
+  </si>
+  <si>
+    <t>-0.2886094</t>
+  </si>
+  <si>
+    <t>0.0850797</t>
+  </si>
+  <si>
+    <t>0.9262351</t>
+  </si>
+  <si>
+    <t>13.7448164</t>
+  </si>
+  <si>
+    <t>-76.590663</t>
+  </si>
+  <si>
+    <t>-76.883548</t>
+  </si>
+  <si>
+    <t>-79.692099</t>
+  </si>
+  <si>
+    <t>-89.361146</t>
   </si>
   <si>
     <t>3942000</t>
@@ -260,84 +362,6 @@
   </si>
   <si>
     <t>22677427</t>
-  </si>
-  <si>
-    <t>60199/60200/60201</t>
-  </si>
-  <si>
-    <t>61051</t>
-  </si>
-  <si>
-    <t>62007</t>
-  </si>
-  <si>
-    <t>62340</t>
-  </si>
-  <si>
-    <t>21712</t>
-  </si>
-  <si>
-    <t>20160</t>
-  </si>
-  <si>
-    <t>20680</t>
-  </si>
-  <si>
-    <t>33180</t>
-  </si>
-  <si>
-    <t>82022</t>
-  </si>
-  <si>
-    <t>85420</t>
-  </si>
-  <si>
-    <t>41360</t>
-  </si>
-  <si>
-    <t>42014</t>
-  </si>
-  <si>
-    <t>43020/43034</t>
-  </si>
-  <si>
-    <t>0958741317</t>
-  </si>
-  <si>
-    <t>0994330910</t>
-  </si>
-  <si>
-    <t>0993328936</t>
-  </si>
-  <si>
-    <t>0984442642</t>
-  </si>
-  <si>
-    <t>0985810896</t>
-  </si>
-  <si>
-    <t>-0.2886094</t>
-  </si>
-  <si>
-    <t>0.0850797</t>
-  </si>
-  <si>
-    <t>0.9262351</t>
-  </si>
-  <si>
-    <t>13.7448164</t>
-  </si>
-  <si>
-    <t>-76.590663</t>
-  </si>
-  <si>
-    <t>-76.883548</t>
-  </si>
-  <si>
-    <t>-79.692099</t>
-  </si>
-  <si>
-    <t>-89.361146</t>
   </si>
 </sst>
 </file>
@@ -739,18 +763,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="79" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -793,28 +819,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -825,28 +851,28 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,22 +883,22 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -883,22 +909,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -909,22 +935,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -935,25 +961,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -964,25 +990,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -993,22 +1019,22 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1019,22 +1045,22 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,25 +1071,25 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1074,28 +1100,28 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1106,25 +1132,25 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,28 +1161,28 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,22 +1193,68 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16">
+        <v>42713</v>
+      </c>
+      <c r="K16">
+        <v>3942100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>85276</v>
+      </c>
+      <c r="K17">
+        <v>3942100</v>
       </c>
     </row>
   </sheetData>
